--- a/Kriging/Article/GaussianModel/content/results/metrics_6_9.xlsx
+++ b/Kriging/Article/GaussianModel/content/results/metrics_6_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_0</t>
+          <t>model_6_9_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994880948396068</v>
+        <v>0.9996399693484389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.754434010405675</v>
+        <v>0.7145193480147954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9996621063809633</v>
+        <v>0.9984869104266989</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995187368126938</v>
+        <v>0.9990545936587995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.99959687163197</v>
+        <v>0.998958845016743</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002546010671803297</v>
+        <v>0.0001768864080797147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1457785793215972</v>
+        <v>0.1694736471404598</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000215449030162238</v>
+        <v>0.0006128810785790022</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002603484881073386</v>
+        <v>0.0004341875531865394</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002379018533800719</v>
+        <v>0.000523532306560337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004634181249160757</v>
+        <v>0.003887421150447512</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01595622346234627</v>
+        <v>0.0132998649647173</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000072038534245</v>
+        <v>1.000027542124508</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01602992465575046</v>
+        <v>0.01340669290547246</v>
       </c>
       <c r="P2" t="n">
-        <v>3534.551625360507</v>
+        <v>3535.280005587339</v>
       </c>
       <c r="Q2" t="n">
-        <v>9487.878440806515</v>
+        <v>8524.29987991499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_1</t>
+          <t>model_6_9_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995334287876404</v>
+        <v>0.9996458673560733</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7542416459205256</v>
+        <v>0.7145168359863853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9995979633688882</v>
+        <v>0.998560988040886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994467716087897</v>
+        <v>0.9990955529900489</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9995292361438938</v>
+        <v>0.9990073869984478</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002320537821715349</v>
+        <v>0.0001739886620662736</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1458927751896951</v>
+        <v>0.169475138389038</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002563481444535099</v>
+        <v>0.0005828757379285193</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002992794359274076</v>
+        <v>0.00041537656045217</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002778162063347439</v>
+        <v>0.0004991235527671115</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004536189820274965</v>
+        <v>0.003898483305302486</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01523331159569497</v>
+        <v>0.01319047618800298</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000065658854139</v>
+        <v>1.000027090930533</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01530367368649609</v>
+        <v>0.01329642548993067</v>
       </c>
       <c r="P3" t="n">
-        <v>3534.737082786918</v>
+        <v>3535.313040842823</v>
       </c>
       <c r="Q3" t="n">
-        <v>9488.063898232926</v>
+        <v>8524.332915170473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_2</t>
+          <t>model_6_9_16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995646731059615</v>
+        <v>0.9996336794239163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7540680902414738</v>
+        <v>0.7145129499636901</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995331336515546</v>
+        <v>0.9984203055287665</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993704577724635</v>
+        <v>0.9990164165692191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9994592352038709</v>
+        <v>0.9989145789475103</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000216514113101274</v>
+        <v>0.0001799767065058972</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1459958053379952</v>
+        <v>0.1694774452999773</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000297685118395257</v>
+        <v>0.0006398595750300813</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000340562859287556</v>
+        <v>0.0004517207729147217</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003191265052133661</v>
+        <v>0.0005457909690077363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004446413264503016</v>
+        <v>0.003877041676161604</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01471441854445068</v>
+        <v>0.01341553973964138</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000061261955906</v>
+        <v>1.000028023299884</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01478238388785</v>
+        <v>0.01352329680998058</v>
       </c>
       <c r="P4" t="n">
-        <v>3534.875709650223</v>
+        <v>3535.245366247497</v>
       </c>
       <c r="Q4" t="n">
-        <v>9488.202525096231</v>
+        <v>8524.265240575147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_3</t>
+          <t>model_6_9_17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995851845127425</v>
+        <v>0.9996269890571376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7538880227918902</v>
+        <v>0.7145048899000108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994709558867584</v>
+        <v>0.9983583750679819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9992908703234925</v>
+        <v>0.9989813984426035</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9993891681417957</v>
+        <v>0.998873646403253</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002063125631661339</v>
+        <v>0.0001832637459373651</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1461027011545768</v>
+        <v>0.169482230101954</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003373311441509285</v>
+        <v>0.0006649446779032443</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003836172057624871</v>
+        <v>0.00046780320652006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003604758253072311</v>
+        <v>0.0005663734083688375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004365599786184586</v>
+        <v>0.003865814861730668</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01436358462105243</v>
+        <v>0.01353749407894109</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000058375460918</v>
+        <v>1.000028535108848</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01442992947581281</v>
+        <v>0.01364623071794269</v>
       </c>
       <c r="P5" t="n">
-        <v>3534.972236484367</v>
+        <v>3535.209168416149</v>
       </c>
       <c r="Q5" t="n">
-        <v>9488.299051930375</v>
+        <v>8524.229042743798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_4</t>
+          <t>model_6_9_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995975622437213</v>
+        <v>0.9996507087235892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7537080799765666</v>
+        <v>0.7145016204824077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9994122471438487</v>
+        <v>0.9986404451462696</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992103800494262</v>
+        <v>0.9991394322375128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9993205648132851</v>
+        <v>0.9990594276399398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002001563769029061</v>
+        <v>0.0001716100531718503</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1462095229828777</v>
+        <v>0.1694841709694746</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003747652388165566</v>
+        <v>0.0005506914196253977</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0004271599526694169</v>
+        <v>0.0003952245662654194</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0004009613388434682</v>
+        <v>0.0004729555398263327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004289407138706756</v>
+        <v>0.003916503526493778</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01414766330186388</v>
+        <v>0.01310000202945978</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00005663358827</v>
+        <v>1.000026720568881</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01421301082420766</v>
+        <v>0.01320522461964458</v>
       </c>
       <c r="P6" t="n">
-        <v>3535.032823224828</v>
+        <v>3535.340571575418</v>
       </c>
       <c r="Q6" t="n">
-        <v>9488.359638670836</v>
+        <v>8524.360445903068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_5</t>
+          <t>model_6_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999603714927716</v>
+        <v>0.9996202371282338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7535422102259624</v>
+        <v>0.714496957817489</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999357001280614</v>
+        <v>0.998301623841343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991304194355201</v>
+        <v>0.9989493304658766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9992540696064396</v>
+        <v>0.9988361465971999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001970962789936356</v>
+        <v>0.0001865810314135817</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1463079904320366</v>
+        <v>0.169486938928787</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004099913188127757</v>
+        <v>0.00068793191779098</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004704161698239501</v>
+        <v>0.0004825307535481216</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004402027671426837</v>
+        <v>0.0005852297364605303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004218618000555075</v>
+        <v>0.003855145288708407</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0140390982257991</v>
+        <v>0.01365946673240144</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000055767743635</v>
+        <v>1.000029051627277</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01410394429015773</v>
+        <v>0.01376918308716949</v>
       </c>
       <c r="P7" t="n">
-        <v>3535.063636445516</v>
+        <v>3535.173289856901</v>
       </c>
       <c r="Q7" t="n">
-        <v>9488.390451891522</v>
+        <v>8524.193164184551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_6</t>
+          <t>model_6_9_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996048659221305</v>
+        <v>0.9996544222200178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7533457919726316</v>
+        <v>0.714488496593831</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9993051523709123</v>
+        <v>0.9987285818574305</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9990507246795316</v>
+        <v>0.9991861242700595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9991895263975618</v>
+        <v>0.9991162418983912</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001965238205991463</v>
+        <v>0.0001697855778339003</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1464245927920404</v>
+        <v>0.1694919618766563</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004430514202199213</v>
+        <v>0.0005149914032140718</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0005135285660739162</v>
+        <v>0.0003737807716966004</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0004782922449191599</v>
+        <v>0.0004443871708026298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004153642641181812</v>
+        <v>0.003938239558739075</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01401869539576156</v>
+        <v>0.01303017950121564</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000055605768416</v>
+        <v>1.000026436488677</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01408344722021899</v>
+        <v>0.01313484125887091</v>
       </c>
       <c r="P8" t="n">
-        <v>3535.069453819158</v>
+        <v>3535.361948447781</v>
       </c>
       <c r="Q8" t="n">
-        <v>9488.396269265166</v>
+        <v>8524.381822775431</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_7</t>
+          <t>model_6_9_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996027743316153</v>
+        <v>0.9996135315560959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7531909781645364</v>
+        <v>0.7144881815926183</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992570839493539</v>
+        <v>0.9982495373146438</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9989747902654658</v>
+        <v>0.9989200324632551</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9991287558884683</v>
+        <v>0.9988017889959754</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001975640937170914</v>
+        <v>0.0001898755413794442</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1465164969561341</v>
+        <v>0.1694921488749834</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004737009922234612</v>
+        <v>0.0007090297081836482</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00055460673373519</v>
+        <v>0.0004959861615744275</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005141553046557826</v>
+        <v>0.0006025060445089661</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004093825814375681</v>
+        <v>0.003845530405564272</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01405574948969607</v>
+        <v>0.01377953342386614</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000055900110272</v>
+        <v>1.000029564599442</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01412067246561362</v>
+        <v>0.01389021418522302</v>
       </c>
       <c r="P9" t="n">
-        <v>3535.05889500224</v>
+        <v>3535.138283491622</v>
       </c>
       <c r="Q9" t="n">
-        <v>9488.385710448249</v>
+        <v>8524.158157819273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_8</t>
+          <t>model_6_9_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995980213668477</v>
+        <v>0.9996069614894343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7530345084957064</v>
+        <v>0.7144828368145244</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9992126770429615</v>
+        <v>0.998201718888229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9989011598652162</v>
+        <v>0.9988931973173008</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9990710224405683</v>
+        <v>0.9987702743579013</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001999280274995877</v>
+        <v>0.0001931034762443869</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1466093841106893</v>
+        <v>0.1694953217661424</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005020158948310593</v>
+        <v>0.0007283986928585856</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0005944385012364191</v>
+        <v>0.0005083104774305019</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000548226075523463</v>
+        <v>0.0006183528026061215</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004037869172736775</v>
+        <v>0.003835469763357975</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0141395907826071</v>
+        <v>0.01389616768193256</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000056568977558</v>
+        <v>1.000030067205521</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01420490101828938</v>
+        <v>0.01400778527968919</v>
       </c>
       <c r="P10" t="n">
-        <v>3535.035106237369</v>
+        <v>3535.104568732781</v>
       </c>
       <c r="Q10" t="n">
-        <v>9488.361921683376</v>
+        <v>8524.124443060431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_9</t>
+          <t>model_6_9_21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995918215549503</v>
+        <v>0.9996005892181327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7529015028148508</v>
+        <v>0.7144725613790934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999172020728922</v>
+        <v>0.9981579213714972</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9988328206033891</v>
+        <v>0.9988684559662345</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9990177311437498</v>
+        <v>0.9987413284651985</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002030115649348936</v>
+        <v>0.0001962342324090629</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1466883420283914</v>
+        <v>0.1695014217084899</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005279393303038603</v>
+        <v>0.0007461389970463273</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006314079266243456</v>
+        <v>0.0005196731965215892</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0005796753588971698</v>
+        <v>0.0006329078978761591</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003987092037965458</v>
+        <v>0.003826659253480166</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01424821269264653</v>
+        <v>0.01400836294536456</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000057441454329</v>
+        <v>1.000030554680375</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01431402464882794</v>
+        <v>0.01412088172437278</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.004495220845</v>
+        <v>3535.072403097884</v>
       </c>
       <c r="Q11" t="n">
-        <v>9488.331310666852</v>
+        <v>8524.092277425534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_10</t>
+          <t>model_6_9_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9995846488171628</v>
+        <v>0.9996560128564657</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7527645811180956</v>
+        <v>0.7144667201229447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991354222304725</v>
+        <v>0.9988216279297212</v>
       </c>
       <c r="E12" t="n">
-        <v>0.998768600070451</v>
+        <v>0.9992368240799473</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9989685264366759</v>
+        <v>0.9991768762745379</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002065789966323704</v>
+        <v>0.0001690040833511085</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1467696246622946</v>
+        <v>0.1695048893304689</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005512754057787777</v>
+        <v>0.0004773028366220473</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006661492471676163</v>
+        <v>0.0003504963643017014</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0006087129854603792</v>
+        <v>0.0004138979013745166</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003939125755758253</v>
+        <v>0.003954464739852114</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01437285624475422</v>
+        <v>0.01300015705101706</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00005845084739</v>
+        <v>1.000026314805962</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01443924392479423</v>
+        <v>0.01310457766062009</v>
       </c>
       <c r="P12" t="n">
-        <v>3534.969655336878</v>
+        <v>3535.371175362985</v>
       </c>
       <c r="Q12" t="n">
-        <v>9488.296470782885</v>
+        <v>8524.391049690636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_11</t>
+          <t>model_6_9_22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9995765051279807</v>
+        <v>0.9995945710185503</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7526384143430225</v>
+        <v>0.7144615149317728</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9991010993591236</v>
+        <v>0.9981184086471301</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9987080206695595</v>
+        <v>0.9988459215134888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.998922220060821</v>
+        <v>0.9987151208913346</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002106293405573177</v>
+        <v>0.0001991910298445187</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1468445227100989</v>
+        <v>0.1695079793568011</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005731604871413013</v>
+        <v>0.0007621437343434358</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006989208279752034</v>
+        <v>0.0005300223749368959</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006360401931511935</v>
+        <v>0.0006460860623329049</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003896825866200403</v>
+        <v>0.0038183322820819</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01451307481401917</v>
+        <v>0.01411350522884088</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000059596878877</v>
+        <v>1.00003101506896</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01458011015833367</v>
+        <v>0.0142268685377492</v>
       </c>
       <c r="P13" t="n">
-        <v>3534.930821298165</v>
+        <v>3535.042492489457</v>
       </c>
       <c r="Q13" t="n">
-        <v>9488.257636744172</v>
+        <v>8524.062366817108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_12</t>
+          <t>model_6_9_23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9995681976628786</v>
+        <v>0.999588835786641</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7525268847654532</v>
+        <v>0.7144505736560214</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9990705618913811</v>
+        <v>0.9980821609993845</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9986517094043438</v>
+        <v>0.9988253023441729</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9988799147801136</v>
+        <v>0.998691112393011</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002147611400471265</v>
+        <v>0.0002020088026300993</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1469107314851709</v>
+        <v>0.1695144745707256</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005926319048836368</v>
+        <v>0.0007768259434064568</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007293834794911211</v>
+        <v>0.0005394919398042855</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006610061977447345</v>
+        <v>0.0006581584480070106</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003856662679149155</v>
+        <v>0.003810543490285105</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01465473097832664</v>
+        <v>0.01421298007562451</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000060765957948</v>
+        <v>1.000031453810692</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01472242062711282</v>
+        <v>0.01432714239212179</v>
       </c>
       <c r="P14" t="n">
-        <v>3534.891968247907</v>
+        <v>3535.014398568272</v>
       </c>
       <c r="Q14" t="n">
-        <v>9488.218783693914</v>
+        <v>8524.034272895922</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_13</t>
+          <t>model_6_9_24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9995599624070461</v>
+        <v>0.9995834845673808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7524282293598252</v>
+        <v>0.7144397206848188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9990429591691863</v>
+        <v>0.9980494196966484</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9986003188671829</v>
+        <v>0.9988065707732763</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9988414461220075</v>
+        <v>0.9986693701777921</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002188570255464022</v>
+        <v>0.0002046379064291407</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1469692975956433</v>
+        <v>0.1695209173632555</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0006102320588719895</v>
+        <v>0.0007900878978135587</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0007571841694373945</v>
+        <v>0.0005480946057485425</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006837080609383475</v>
+        <v>0.0006690912603801172</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003821249891190566</v>
+        <v>0.003803533364517547</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01479381713914304</v>
+        <v>0.01430517061866585</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000061924875273</v>
+        <v>1.00003186317569</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01486214922165185</v>
+        <v>0.01442007343334836</v>
       </c>
       <c r="P15" t="n">
-        <v>3534.854183785469</v>
+        <v>3534.988536901385</v>
       </c>
       <c r="Q15" t="n">
-        <v>9488.180999231476</v>
+        <v>8524.008411229035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_14</t>
+          <t>model_6_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9995517015727707</v>
+        <v>0.9996547327011559</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7523419163681143</v>
+        <v>0.7144223870789137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9990173783183977</v>
+        <v>0.9989206945374324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9985527976894649</v>
+        <v>0.9992902494247842</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9988058467841745</v>
+        <v>0.9992411728056715</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002229656327358889</v>
+        <v>0.0001696330355627017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14702053671605</v>
+        <v>0.1695312073404935</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0006265430194306424</v>
+        <v>0.0004371756356575013</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0007828916556907883</v>
+        <v>0.0003259602270430712</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007047166257560158</v>
+        <v>0.0003815671611970254</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003789176984777458</v>
+        <v>0.003969750500438472</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01493203377761679</v>
+        <v>0.01302432476417498</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000063087392159</v>
+        <v>1.00002641273706</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0150010042775574</v>
+        <v>0.01312893949507446</v>
       </c>
       <c r="P16" t="n">
-        <v>3534.816985823345</v>
+        <v>3535.363746136834</v>
       </c>
       <c r="Q16" t="n">
-        <v>9488.143801269352</v>
+        <v>8524.383620464485</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_15</t>
+          <t>model_6_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9995437475077763</v>
+        <v>0.9996499707159909</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7522626885627917</v>
+        <v>0.714383505747474</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9989946055713119</v>
+        <v>0.999028536188988</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9985090327535148</v>
+        <v>0.9993466232014587</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9987734843640581</v>
+        <v>0.9993103499408152</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002269216652057384</v>
+        <v>0.000171972643169705</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1470675697637525</v>
+        <v>0.1695542889784221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000641063466095923</v>
+        <v>0.0003934940791340805</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0008065671314123325</v>
+        <v>0.0003000699922397883</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007238149585356485</v>
+        <v>0.0003467822677801384</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003758897051561988</v>
+        <v>0.003986557273968687</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01506391931755273</v>
+        <v>0.01311383403775208</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000064206738529</v>
+        <v>1.000026777026011</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01513349899182014</v>
+        <v>0.01321916773018989</v>
       </c>
       <c r="P17" t="n">
-        <v>3534.781811374477</v>
+        <v>3535.336350290279</v>
       </c>
       <c r="Q17" t="n">
-        <v>9488.108626820485</v>
+        <v>8524.35622461793</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_16</t>
+          <t>model_6_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9995361964312498</v>
+        <v>0.9996389289030611</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7521932776788709</v>
+        <v>0.7143172320595579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989739364004702</v>
+        <v>0.9991358510321137</v>
       </c>
       <c r="E18" t="n">
-        <v>0.998469505687519</v>
+        <v>0.9994039687148865</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9987442010784512</v>
+        <v>0.9993797666902005</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002306772673968351</v>
+        <v>0.0001773975885719981</v>
       </c>
       <c r="H18" t="n">
-        <v>0.147108775062842</v>
+        <v>0.1695936319024434</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0006542426223783349</v>
+        <v>0.0003500259078090492</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008279500506605407</v>
+        <v>0.0002737334773716961</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000741096173333278</v>
+        <v>0.0003118768872133899</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003732533655662204</v>
+        <v>0.003995885500647837</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01518806331948992</v>
+        <v>0.01331906860752651</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000065269373812</v>
+        <v>1.000027621717942</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01525821641021256</v>
+        <v>0.01342605079688658</v>
       </c>
       <c r="P18" t="n">
-        <v>3534.748981870296</v>
+        <v>3535.274234162699</v>
       </c>
       <c r="Q18" t="n">
-        <v>9488.075797316304</v>
+        <v>8524.294108490349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_17</t>
+          <t>model_6_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9995289820113459</v>
+        <v>0.9996209536737359</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7521292576112817</v>
+        <v>0.7142185993414929</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9989553019593115</v>
+        <v>0.9992487540677271</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9984330302642451</v>
+        <v>0.9994614498937255</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9987174177009038</v>
+        <v>0.9994514853378536</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002342654301050063</v>
+        <v>0.0001862289859431476</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1471467801404859</v>
+        <v>0.1696521845445984</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0006661243864870941</v>
+        <v>0.0003042942238012937</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0008476821256517523</v>
+        <v>0.0002473346567727815</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007569020943837504</v>
+        <v>0.0002758140246876566</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003709980948890821</v>
+        <v>0.004007971204698131</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01530573193627166</v>
+        <v>0.01364657414676473</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000066284632645</v>
+        <v>1.000028996811985</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01537642853389013</v>
+        <v>0.01375618694496448</v>
       </c>
       <c r="P19" t="n">
-        <v>3534.718111537539</v>
+        <v>3535.177067068442</v>
       </c>
       <c r="Q19" t="n">
-        <v>9488.044926983546</v>
+        <v>8524.196941396092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_18</t>
+          <t>model_6_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9995221382001089</v>
+        <v>0.9995932131166365</v>
       </c>
       <c r="C20" t="n">
-        <v>0.752069139997244</v>
+        <v>0.7141103356364769</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9989385201125794</v>
+        <v>0.9993587119695303</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9983993985253791</v>
+        <v>0.9995204560541201</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986929357514986</v>
+        <v>0.9995227187960659</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002376692669468901</v>
+        <v>0.0001998581796858481</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1471824685531243</v>
+        <v>0.1697164545566445</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006768248922055752</v>
+        <v>0.000259755474315111</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0008658758553970443</v>
+        <v>0.0002202354727625512</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0007713498524671382</v>
+        <v>0.0002399951338578277</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003689335995463297</v>
+        <v>0.004013162506903812</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01541652577421029</v>
+        <v>0.01413712062924583</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000067247737079</v>
+        <v>1.000031118947626</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0154877341243808</v>
+        <v>0.01425067362313232</v>
       </c>
       <c r="P20" t="n">
-        <v>3534.689260970815</v>
+        <v>3535.035805089037</v>
       </c>
       <c r="Q20" t="n">
-        <v>9488.016076416823</v>
+        <v>8524.055679416688</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_19</t>
+          <t>model_6_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9995157546783262</v>
+        <v>0.9995526517846378</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7520172793744945</v>
+        <v>0.7139807362213784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9989233303435656</v>
+        <v>0.9994638223464146</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9983689300482942</v>
+        <v>0.9995772404738074</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986707628262523</v>
+        <v>0.9995909851428106</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000240844174300822</v>
+        <v>0.0002197863393940926</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1472132552590507</v>
+        <v>0.1697933903678501</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0006865102512003431</v>
+        <v>0.000217180228082874</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008823583584290706</v>
+        <v>0.0001941566459463347</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0007844349648761966</v>
+        <v>0.0002056682194729134</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003670852380492058</v>
+        <v>0.004028748349220151</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01551915507689842</v>
+        <v>0.01482519272704718</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000068146066669</v>
+        <v>1.0000342218647</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01559083746794108</v>
+        <v>0.01494427249323505</v>
       </c>
       <c r="P21" t="n">
-        <v>3534.662720826522</v>
+        <v>3534.845709336179</v>
       </c>
       <c r="Q21" t="n">
-        <v>9487.989536272529</v>
+        <v>8523.86558366383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_20</t>
+          <t>model_6_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999509717695614</v>
+        <v>0.9994956666416407</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7519667945324018</v>
+        <v>0.7138182425724398</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9989095784477777</v>
+        <v>0.9995604730129267</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983406984594896</v>
+        <v>0.9996303419149482</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986503934248034</v>
+        <v>0.9996541623043155</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002438467270390704</v>
+        <v>0.0002477836702184788</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1472432252421485</v>
+        <v>0.1698898536172203</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006952787879334412</v>
+        <v>0.0001780316107224098</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0008976307741384157</v>
+        <v>0.0001697692647803391</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0007964557471908451</v>
+        <v>0.0001739003408991194</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003654175609477063</v>
+        <v>0.004036253499887097</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01561559243317622</v>
+        <v>0.01574114577209927</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000068995629087</v>
+        <v>1.000038581193265</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01568772026472448</v>
+        <v>0.01586758270904722</v>
       </c>
       <c r="P22" t="n">
-        <v>3534.637941395848</v>
+        <v>3534.605908979956</v>
       </c>
       <c r="Q22" t="n">
-        <v>9487.964756841855</v>
+        <v>8523.625783307607</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_21</t>
+          <t>model_6_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9995041922283743</v>
+        <v>0.9994168255519835</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7519220976802382</v>
+        <v>0.7136146001366094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9988973070181333</v>
+        <v>0.9996422060893912</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9983153007994864</v>
+        <v>0.9996777727457623</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9986321222780212</v>
+        <v>0.9997087418299361</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002465948725252999</v>
+        <v>0.000286519030938678</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1472697592243963</v>
+        <v>0.1700107445640243</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0007031033441447482</v>
+        <v>0.0001449254040951925</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000911370122082974</v>
+        <v>0.0001479861695340807</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0008072382671709981</v>
+        <v>0.0001464556804992756</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003639394146929912</v>
+        <v>0.004043460692222623</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01570333953416597</v>
+        <v>0.0169268730407798</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00006977320781</v>
+        <v>1.000044612488373</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01577587266625893</v>
+        <v>0.01706283404453192</v>
       </c>
       <c r="P23" t="n">
-        <v>3534.615527520259</v>
+        <v>3534.315411196801</v>
       </c>
       <c r="Q23" t="n">
-        <v>9487.942342966266</v>
+        <v>8523.335285524452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_22</t>
+          <t>model_6_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9994990067281343</v>
+        <v>0.9993094550832119</v>
       </c>
       <c r="C24" t="n">
-        <v>0.751881151579998</v>
+        <v>0.7134151710366827</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988859321400821</v>
+        <v>0.9997001686703088</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9982921059338625</v>
+        <v>0.9997181480401671</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9986153497834114</v>
+        <v>0.9997505245048474</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002491739320799322</v>
+        <v>0.0003392711409951349</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1472940665982783</v>
+        <v>0.1701291342926294</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0007103562376776998</v>
+        <v>0.0001214475018369214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00092391782644993</v>
+        <v>0.0001294434017073289</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0008171363737542479</v>
+        <v>0.0001254457631264417</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003626224064372032</v>
+        <v>0.00402147558271934</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01578524412481265</v>
+        <v>0.01841931434649876</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000070502944225</v>
+        <v>1.000052826263524</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01585815557111574</v>
+        <v>0.01856726302319423</v>
       </c>
       <c r="P24" t="n">
-        <v>3534.594718765887</v>
+        <v>3533.97742188866</v>
       </c>
       <c r="Q24" t="n">
-        <v>9487.921534211895</v>
+        <v>8522.99729621631</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_23</t>
+          <t>model_6_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9994942919620676</v>
+        <v>0.9991661957323116</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7518476565998994</v>
+        <v>0.7131542171769567</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988758893319416</v>
+        <v>0.9997382832383301</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9982711826175802</v>
+        <v>0.9997468294625236</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9986003341352296</v>
+        <v>0.9997789718523059</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002515188673627572</v>
+        <v>0.0004096557926761066</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1473139506653727</v>
+        <v>0.1702840477763825</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0007167597716661295</v>
+        <v>0.0001060090915995801</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0009352366929329498</v>
+        <v>0.0001162711644880781</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0008259976963885309</v>
+        <v>0.0001111413553581017</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003613830589433248</v>
+        <v>0.003992436721566264</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01585934637249459</v>
+        <v>0.02023995535262137</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000071166435948</v>
+        <v>1.000063785516194</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01593260009428041</v>
+        <v>0.02040252788678115</v>
       </c>
       <c r="P25" t="n">
-        <v>3534.575985103806</v>
+        <v>3533.600386561854</v>
       </c>
       <c r="Q25" t="n">
-        <v>9487.902800549815</v>
+        <v>8522.620260889504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_24</t>
+          <t>model_6_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9994899445622946</v>
+        <v>0.9989765025569315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7518142006408817</v>
+        <v>0.713059610557637</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9988666951525871</v>
+        <v>0.9997744270693341</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9982522587169526</v>
+        <v>0.9997661426470468</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9985866918680744</v>
+        <v>0.9998023522196726</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002536810894057052</v>
+        <v>0.0005028538142465719</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1473338115678677</v>
+        <v>0.1703402103524038</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007226221997011302</v>
+        <v>9.136893379229542e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0009454739374333294</v>
+        <v>0.0001074013865238993</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0008340485330399181</v>
+        <v>9.938481780842886e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003603152586855713</v>
+        <v>0.00390529208282717</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01592736919286124</v>
+        <v>0.02242440220488769</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00007177822956</v>
+        <v>1.000078296928019</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01600093710948468</v>
+        <v>0.0226045207787656</v>
       </c>
       <c r="P26" t="n">
-        <v>3534.558865266668</v>
+        <v>3533.190422115691</v>
       </c>
       <c r="Q26" t="n">
-        <v>9487.885680712676</v>
+        <v>8522.210296443342</v>
       </c>
     </row>
   </sheetData>
